--- a/data/production_data.xlsx
+++ b/data/production_data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5474,6 +5474,11 @@
           <t>2024-07-08 23:02</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:48</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5750,7 +5755,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5761,6 +5766,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5813,7 +5828,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5824,6 +5839,26 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:51</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:51</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2024-07-12 09:02</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5949,7 +5984,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5960,6 +5995,16 @@
           <t>L2</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6362,7 +6407,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -6373,6 +6418,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6498,7 +6553,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -6519,6 +6574,26 @@
           <t>Pausa para almorzar</t>
         </is>
       </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:51</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:52</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Falta de materiales: Corrugado</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:52</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6592,6 +6667,21 @@
           <t>Pausa para almorzar</t>
         </is>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:57</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6644,7 +6734,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -6655,6 +6745,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6707,7 +6807,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -6718,6 +6818,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6770,7 +6880,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -6781,6 +6891,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6833,7 +6953,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6844,6 +6964,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6974,7 +7104,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -6985,6 +7115,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:52</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Pausa para almorzar</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7105,7 +7245,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -7116,6 +7256,11 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:50</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7319,7 +7464,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -7330,6 +7475,16 @@
           <t>L1</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7382,7 +7537,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -7393,13 +7548,648 @@
           <t>L1</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:51</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Pausa para almorzar</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>8218092e-4e36-4b61-960c-0e971b07466b</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:50</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Walfred Lira</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ELECTRICIDAD</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Bosquemar</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Iluminación</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>76292e9b-9f21-40d4-bbf0-669d245975c2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:53</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>7</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Luis Recabal</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Barrera de humedad Volcanwrap exterior muros</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>d887c85e-f175-4bd4-aa3b-76cf773a7244</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-07-12 08:57</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Luis Recabal</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Piso SPC</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2024-07-12 08:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>f151ce73-54b7-46ae-b271-7a5dd9b9aefe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:39</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>CLAUDIO ROJAS</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>PINTURA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Pintura Interior (2° mano)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:39</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>efcab23b-415e-4d2a-aadf-1f62c0d44829</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-07-12 13:03</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>25</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Instalación OSB</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>2024-07-12 13:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>73fb3577-6673-4829-a8a6-5fb9e019701a</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-07-12 13:15</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>25</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Guardapolvos y pilastras</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:28</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>95888789-eb8c-483e-9456-6a5677581cba</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:15</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>39</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DIEGO RIOSECO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>GASFITERÍA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Artefactos sanitarios</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:16</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>9c10e9aa-0664-48e2-af1f-77c612e2646e</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:46</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>25</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>CELSO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Instalación Escalera</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2433e744-e529-44df-914e-921d5cd4fa25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:53</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>46</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CAMILO CASTILLO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ABRAHAM BECERRA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>PINTURA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Pintura Interior (2° mano)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:53</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/production_data.xlsx
+++ b/data/production_data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -5245,6 +5245,11 @@
           <t>Pausa para almorzar</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5755,7 +5760,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5776,6 +5781,11 @@
           <t>Fin del día automático</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6953,7 +6963,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6974,6 +6984,11 @@
           <t>Fin del día automático</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:57</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8188,6 +8203,613 @@
       <c r="T101" t="inlineStr">
         <is>
           <t>2024-07-12 16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ec7bec93-68de-45e3-a277-503428236ec5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>32</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Carlos Astorga</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Guardapolvos y pilastras</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>06b0cafd-b600-4510-a1af-156aadf6f614</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>32</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Carlos Astorga</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Instalación OSB</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>8892e157-d06e-4ad5-94f7-288555094449</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>32</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Carlos Astorga</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Instalación OSB</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>a2ef94a5-c02a-4c49-b85c-7787d9182cd6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:21</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>32</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Carlos Astorga</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Instalación OSB</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>b0e9d0ae-e261-4ba4-be9f-813fa269b1a6</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:21</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>32</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Carlos Astorga</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Instalación OSB</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>en proceso</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ac8b686b-652e-41cd-912a-be7752f2f374</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:58</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>12</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Flor Sanhueza</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SELLOS Y ASEO</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Aseo entrega</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:59</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Final del día</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3c1e37fd-6866-4c4e-b4df-fdf3aa9e9c1c</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:08</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>25</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>CELSO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>240f279e-469b-45fd-b098-cdcbc15480b9</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:08</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>25</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Revestimiento Siding (planchas)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>en proceso</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>a2a02727-8a93-43a4-a62c-8f836eb05283</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:09</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>FLOR SANHUEZA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SELLOS Y ASEO</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Bosquemar</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Aseo entrega</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:09</t>
         </is>
       </c>
     </row>

--- a/data/production_data.xlsx
+++ b/data/production_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6744" yWindow="17172" windowWidth="30936" windowHeight="18696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Updated Sheet10" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -428,13 +430,15 @@
     <col width="15.21875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="10" max="10"/>
     <col width="9.33203125" customWidth="1" min="11" max="11"/>
-    <col width="7.88671875" customWidth="1" min="12" max="12"/>
-    <col width="5.6640625" customWidth="1" min="13" max="13"/>
-    <col width="17.77734375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="10" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="11.77734375" customWidth="1" min="13" max="13"/>
+    <col width="10.21875" customWidth="1" min="14" max="14"/>
+    <col width="21.77734375" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="18.77734375" bestFit="1" customWidth="1" min="16" max="16"/>
     <col width="17.77734375" bestFit="1" customWidth="1" min="17" max="17"/>
     <col width="14.44140625" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="15.44140625" bestFit="1" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,12 +449,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Comienzo</t>
+          <t>Start Timestamp</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Worker #</t>
+          <t>Worker Number</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -480,7 +484,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Módulo</t>
+          <t>Nº modulo</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -495,47 +499,57 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Station</t>
+          <t>Station_i</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>Station_f</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Line</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Pause 1 Timestamp</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Pause 1 Reason</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Resume 1 Timestamp</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Pause 2 Timestamp</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Pause 2 Reason</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Resume 2 Timestamp</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>End Timestamp</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>comentarios</t>
         </is>
       </c>
     </row>
@@ -600,10 +614,15 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2024-07-06 09:32:23</t>
         </is>
@@ -670,6 +689,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
@@ -737,10 +761,15 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2024-07-06 09:33:44</t>
         </is>
@@ -809,10 +838,15 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2024-07-06 09:37:10</t>
         </is>
@@ -881,10 +915,15 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2024-07-06 14:40:24</t>
         </is>
@@ -953,20 +992,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2024-07-06 15:38:08</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>2024-07-06 15:38:09</t>
         </is>
@@ -1035,20 +1079,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2024-07-06 14:46:23</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>2024-07-06 14:57:18</t>
         </is>
@@ -1117,20 +1166,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2024-07-06 14:46:49</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>2024-07-06 14:57:17</t>
         </is>
@@ -1199,35 +1253,40 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2024-07-06 14:57:33</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2024-07-06 14:58:24</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2024-07-06 14:58:32</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Bathroom break</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>2024-07-06 14:58:37</t>
         </is>
@@ -1296,10 +1355,15 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>2024-07-06 16:30</t>
         </is>
@@ -1366,20 +1430,25 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2024-07-06 15:43:54</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>2024-07-06 15:44:45</t>
         </is>
@@ -1446,25 +1515,30 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2024-07-06 15:44:17</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Bathroom break</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2024-07-06 15:44:33</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>2024-07-06 15:44:40</t>
         </is>
@@ -1531,10 +1605,15 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>2024-07-06 16:04</t>
         </is>
@@ -1601,35 +1680,40 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2024-07-06 16:07</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Lack of materials: corrugado</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2024-07-06 16:07</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2024-07-06 16:08</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>2024-07-06 16:08</t>
         </is>
@@ -1694,37 +1778,40 @@
       <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2024-07-06 16:19</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Lack of materials: Lunch break</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2024-07-06 16:19</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2024-07-06 16:19</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>2024-07-06 16:19</t>
         </is>
@@ -1789,27 +1876,30 @@
       <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2024-07-06 16:32</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2024-07-06 16:32</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>2024-07-06 16:32</t>
         </is>
@@ -1874,27 +1964,30 @@
       <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2024-07-07 10:20</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Lunch break</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2024-07-07 10:20</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>2024-07-07 10:20</t>
         </is>
@@ -1957,22 +2050,25 @@
       <c r="L19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2024-07-07 11:30</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>2024-07-07 11:30</t>
         </is>
@@ -2035,12 +2131,15 @@
       <c r="L20" t="n">
         <v>4</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>2024-07-07 12:12</t>
         </is>
@@ -2103,12 +2202,15 @@
       <c r="L21" t="n">
         <v>4</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>2024-07-07 12:12</t>
         </is>
@@ -2173,12 +2275,15 @@
       <c r="L22" t="n">
         <v>4</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>2024-07-07 12:19</t>
         </is>
@@ -2243,27 +2348,30 @@
       <c r="L23" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2024-07-07 12:20</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2024-07-07 12:20</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>2024-07-07 12:20</t>
         </is>
@@ -2328,37 +2436,40 @@
       <c r="L24" t="n">
         <v>4</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2024-07-07 14:28</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Falta de materiales: corrugado</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2024-07-07 14:28</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2024-07-07 14:28</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>2024-07-07 14:37</t>
         </is>
@@ -2423,12 +2534,15 @@
       <c r="L25" t="n">
         <v>4</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>2024-07-07 14:28</t>
         </is>
@@ -2493,12 +2607,15 @@
       <c r="L26" t="n">
         <v>4</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>2024-07-07 14:29</t>
         </is>
@@ -2561,27 +2678,30 @@
       <c r="L27" t="n">
         <v>4</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2024-07-07 14:33</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
@@ -2644,27 +2764,30 @@
       <c r="L28" t="n">
         <v>4</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
@@ -2727,27 +2850,30 @@
       <c r="L29" t="n">
         <v>4</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2024-07-07 14:35</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>2024-07-07 14:35</t>
         </is>
@@ -2810,27 +2936,30 @@
       <c r="L30" t="n">
         <v>4</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2024-07-07 14:34</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2024-07-07 14:35</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>2024-07-07 14:35</t>
         </is>
@@ -2895,7 +3024,10 @@
       <c r="L31" t="n">
         <v>4</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -2960,22 +3092,25 @@
       <c r="L32" t="n">
         <v>4</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2024-07-07 15:49</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>2024-07-07 18:25</t>
         </is>
@@ -3040,12 +3175,15 @@
       <c r="L33" t="n">
         <v>4</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>2024-07-07 16:56</t>
         </is>
@@ -3110,22 +3248,25 @@
       <c r="L34" t="n">
         <v>4</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2024-07-07 18:08</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>2024-07-08 14:39</t>
         </is>
@@ -3190,22 +3331,25 @@
       <c r="L35" t="n">
         <v>4</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2024-07-07 18:21</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t xml:space="preserve">Falta de materiales: </t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>2024-07-08 10:49</t>
         </is>
@@ -3270,27 +3414,30 @@
       <c r="L36" t="n">
         <v>4</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2024-07-07 18:23</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2024-07-07 18:23</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>2024-07-07 18:24</t>
         </is>
@@ -3355,42 +3502,45 @@
       <c r="L37" t="n">
         <v>4</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2024-07-08 12:32</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2024-07-08 12:43</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2024-07-08 12:50</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>2024-07-08 12:50</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>2024-07-08 12:50</t>
         </is>
@@ -3455,12 +3605,15 @@
       <c r="L38" t="n">
         <v>4</v>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>2024-07-07 18:27</t>
         </is>
@@ -3525,22 +3678,25 @@
       <c r="L39" t="n">
         <v>4</v>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2024-07-07 23:18</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>2024-07-08 07:01</t>
         </is>
@@ -3605,12 +3761,15 @@
       <c r="L40" t="n">
         <v>4</v>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>2024-07-07 18:52</t>
         </is>
@@ -3675,12 +3834,15 @@
       <c r="L41" t="n">
         <v>4</v>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>2024-07-08 07:09</t>
         </is>
@@ -3745,12 +3907,15 @@
       <c r="L42" t="n">
         <v>4</v>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>2024-07-08 07:12</t>
         </is>
@@ -3815,12 +3980,15 @@
       <c r="L43" t="n">
         <v>4</v>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>2024-07-08 07:16</t>
         </is>
@@ -3885,12 +4053,15 @@
       <c r="L44" t="n">
         <v>4</v>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>2024-07-08 07:21</t>
         </is>
@@ -3955,12 +4126,15 @@
       <c r="L45" t="n">
         <v>4</v>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>2024-07-08 07:26</t>
         </is>
@@ -4025,42 +4199,45 @@
       <c r="L46" t="n">
         <v>4</v>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2024-07-08 07:27</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2024-07-08 09:32</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2024-07-08 09:36</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Falta de materiales: piso spc</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>2024-07-08 09:37</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>2024-07-08 09:37</t>
         </is>
@@ -4125,12 +4302,15 @@
       <c r="L47" t="n">
         <v>4</v>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>2024-07-08 09:10</t>
         </is>
@@ -4195,17 +4375,20 @@
       <c r="L48" t="n">
         <v>4</v>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2024-07-08 09:32</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
@@ -4270,12 +4453,15 @@
       <c r="L49" t="n">
         <v>4</v>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>2024-07-08 09:37</t>
         </is>
@@ -4340,22 +4526,25 @@
       <c r="L50" t="n">
         <v>2</v>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2024-07-08 10:49</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>Falta de materiales: piso spc</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>2024-07-08 14:09</t>
         </is>
@@ -4420,22 +4609,25 @@
       <c r="L51" t="n">
         <v>2</v>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2024-07-08 14:09</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>2024-07-08 14:10</t>
         </is>
@@ -4500,27 +4692,30 @@
       <c r="L52" t="n">
         <v>2</v>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2024-07-08 13:18</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2024-07-08 13:18</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>2024-07-08 13:18</t>
         </is>
@@ -4585,17 +4780,20 @@
       <c r="L53" t="n">
         <v>2</v>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2024-07-08 14:04</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
@@ -4660,22 +4858,25 @@
       <c r="L54" t="n">
         <v>4</v>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2024-07-08 14:40</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>2024-07-08 14:44</t>
         </is>
@@ -4740,12 +4941,15 @@
       <c r="L55" t="n">
         <v>4</v>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>2024-07-08 14:44</t>
         </is>
@@ -4810,37 +5014,40 @@
       <c r="L56" t="n">
         <v>4</v>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2024-07-08 14:45</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2024-07-08 14:55</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2024-07-08 14:55</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>2024-07-08 15:00</t>
         </is>
@@ -4903,12 +5110,15 @@
       <c r="L57" t="n">
         <v>2</v>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>2024-07-09 23:21</t>
         </is>
@@ -4971,32 +5181,35 @@
       <c r="L58" t="n">
         <v>4</v>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2024-07-08 22:42</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2024-07-09 20:34</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2024-07-09 20:40</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
@@ -5059,27 +5272,30 @@
       <c r="L59" t="n">
         <v>5</v>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2024-07-08 22:57</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2024-07-08 23:03</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>2024-07-08 23:03</t>
         </is>
@@ -5142,17 +5358,20 @@
       <c r="L60" t="n">
         <v>5</v>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2024-07-08 23:10</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
@@ -5215,37 +5434,40 @@
       <c r="L61" t="n">
         <v>5</v>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2024-07-08 22:49</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>Falta de materiales: Corrugado</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2024-07-09 15:01</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>2024-07-09 15:02</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>2024-07-15 00:20</t>
         </is>
@@ -5308,22 +5530,25 @@
       <c r="L62" t="n">
         <v>6</v>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M62" t="n">
+        <v>6</v>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2024-07-08 22:53</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>2024-07-08 22:54</t>
         </is>
@@ -5386,17 +5611,20 @@
       <c r="L63" t="n">
         <v>6</v>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="M63" t="n">
+        <v>6</v>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2024-07-08 22:54</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
@@ -5459,27 +5687,30 @@
       <c r="L64" t="n">
         <v>4</v>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2024-07-08 23:02</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2024-07-08 23:02</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>2024-07-12 16:48</t>
         </is>
@@ -5542,27 +5773,30 @@
       <c r="L65" t="n">
         <v>6</v>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="M65" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2024-07-08 23:03</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2024-07-08 23:03</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>2024-07-08 23:04</t>
         </is>
@@ -5625,17 +5859,20 @@
       <c r="L66" t="n">
         <v>6</v>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="M66" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2024-07-08 23:07</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
@@ -5698,12 +5935,15 @@
       <c r="L67" t="n">
         <v>4</v>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>2024-07-09 19:58</t>
         </is>
@@ -5766,22 +6006,25 @@
       <c r="L68" t="n">
         <v>3</v>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>2024-07-15 00:20</t>
         </is>
@@ -5844,27 +6087,30 @@
       <c r="L69" t="n">
         <v>3</v>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2024-07-12 07:51</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>2024-07-12 07:51</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>2024-07-12 09:02</t>
         </is>
@@ -5927,17 +6173,20 @@
       <c r="L70" t="n">
         <v>3</v>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2024-07-09 20:28</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>Falta de materiales: piso spc</t>
         </is>
@@ -6000,17 +6249,20 @@
       <c r="L71" t="n">
         <v>3</v>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6073,12 +6325,15 @@
       <c r="L72" t="n">
         <v>4</v>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>2024-07-10 11:32</t>
         </is>
@@ -6141,12 +6396,15 @@
       <c r="L73" t="n">
         <v>4</v>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>2024-07-10 07:51</t>
         </is>
@@ -6209,12 +6467,15 @@
       <c r="L74" t="n">
         <v>4</v>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>2024-07-10 12:53</t>
         </is>
@@ -6277,22 +6538,25 @@
       <c r="L75" t="n">
         <v>4</v>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2024-07-10 12:55</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>2024-07-11 22:21</t>
         </is>
@@ -6355,12 +6619,15 @@
       <c r="L76" t="n">
         <v>4</v>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>2024-07-11 22:16</t>
         </is>
@@ -6423,17 +6690,20 @@
       <c r="L77" t="n">
         <v>3</v>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6496,17 +6766,20 @@
       <c r="L78" t="n">
         <v>6</v>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="M78" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2024-07-10 13:09</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>Otra razón: Otra tarea</t>
         </is>
@@ -6569,37 +6842,40 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2024-07-10 13:03</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>2024-07-12 12:51</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>2024-07-12 12:52</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>Falta de materiales: Corrugado</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>2024-07-12 12:52</t>
         </is>
@@ -6662,32 +6938,35 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2024-07-10 13:07</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>2024-07-13 15:57</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6750,17 +7029,20 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6823,17 +7105,20 @@
       <c r="L82" t="n">
         <v>6</v>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M82" t="n">
+        <v>6</v>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6896,17 +7181,20 @@
       <c r="L83" t="n">
         <v>6</v>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M83" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
@@ -6969,22 +7257,25 @@
       <c r="L84" t="n">
         <v>4</v>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>2024-07-13 15:56</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>Fin del día automático</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>2024-07-15 00:57</t>
         </is>
@@ -7047,22 +7338,25 @@
       <c r="L85" t="n">
         <v>4</v>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>2024-07-10 23:33</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>2024-07-10 23:33</t>
         </is>
@@ -7125,17 +7419,20 @@
       <c r="L86" t="n">
         <v>4</v>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>2024-07-12 07:52</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
@@ -7198,12 +7495,15 @@
       <c r="L87" t="n">
         <v>4</v>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>2024-07-11 22:40</t>
         </is>
@@ -7266,12 +7566,15 @@
       <c r="L88" t="n">
         <v>4</v>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>2024-07-12 07:50</t>
         </is>
@@ -7334,22 +7637,25 @@
       <c r="L89" t="n">
         <v>4</v>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>2024-07-11 22:16</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>Pausa para almorzar</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>2024-07-11 22:23</t>
         </is>
@@ -7358,12 +7664,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>47074929-d884-4b9b-9fc1-e290bd462b9f</t>
+          <t>956bfe6b-f8cd-48dd-8c4c-98a88c27fdde</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-11 22:21</t>
+          <t>2024-07-11 22:32</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -7386,7 +7692,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Bosquemar</t>
+          <t>Las Bandurrias</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7396,51 +7702,59 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Barrera de humedad Volcanwrap exterior muros</t>
+          <t>Guardapolvos y pilastras</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L90" t="n">
         <v>4</v>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>2024-07-11 22:21</t>
-        </is>
-      </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Fin del día</t>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:16</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>956bfe6b-f8cd-48dd-8c4c-98a88c27fdde</t>
+          <t>6f6d29f5-fe5b-49a4-9e6d-3b9bd12919da</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-11 22:32</t>
+          <t>2024-07-11 22:40</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7449,7 +7763,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Carlos Rebolledo</t>
+          <t>Celso Martinez</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7469,85 +7783,98 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Guardapolvos y pilastras</t>
+          <t>Instalación Escalera</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L91" t="n">
         <v>4</v>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>2024-07-13 15:56</t>
-        </is>
-      </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Fin del día automático</t>
+          <t>2024-07-12 12:51</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Pausa para almorzar</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2024-07-15 13:12</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>2024-07-15 13:14</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6f6d29f5-fe5b-49a4-9e6d-3b9bd12919da</t>
+          <t>8218092e-4e36-4b61-960c-0e971b07466b</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-07-11 22:40</t>
+          <t>2024-07-12 07:50</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>FRANCISCO DIAZ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Celso Martinez</t>
+          <t>Walfred Lira</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CARPINTERIA</t>
+          <t>ELECTRICIDAD</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Las Bandurrias</t>
+          <t>Bosquemar</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Instalación Escalera</t>
+          <t>Iluminación</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7558,54 +7885,57 @@
       <c r="L92" t="n">
         <v>4</v>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>2024-07-12 12:51</t>
-        </is>
-      </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Pausa para almorzar</t>
+          <t>2024-07-13 15:56</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Fin del día automático</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8218092e-4e36-4b61-960c-0e971b07466b</t>
+          <t>76292e9b-9f21-40d4-bbf0-669d245975c2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-12 07:50</t>
+          <t>2024-07-12 07:53</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FRANCISCO DIAZ</t>
+          <t>CESAR VILLARROEL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Walfred Lira</t>
+          <t>Luis Recabal</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ELECTRICIDAD</t>
+          <t>CARPINTERIA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Bosquemar</t>
+          <t>Puyaral</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7615,47 +7945,45 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Iluminación</t>
+          <t>Barrera de humedad Volcanwrap exterior muros</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L93" t="n">
         <v>4</v>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>2024-07-13 15:56</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Fin del día automático</t>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>2024-07-12 07:53</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>76292e9b-9f21-40d4-bbf0-669d245975c2</t>
+          <t>d887c85e-f175-4bd4-aa3b-76cf773a7244</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-07-12 07:53</t>
+          <t>2024-07-12 08:57</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -7693,7 +8021,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Barrera de humedad Volcanwrap exterior muros</t>
+          <t>Piso SPC</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7704,44 +8032,47 @@
       <c r="L94" t="n">
         <v>4</v>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>2024-07-12 07:53</t>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>2024-07-12 08:57</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>d887c85e-f175-4bd4-aa3b-76cf773a7244</t>
+          <t>f151ce73-54b7-46ae-b271-7a5dd9b9aefe</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-12 08:57</t>
+          <t>2024-07-12 12:39</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>FRANCISCO DIAZ</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Luis Recabal</t>
+          <t>CLAUDIO ROJAS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CARPINTERIA</t>
+          <t>PINTURA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7751,7 +8082,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7761,65 +8092,73 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Piso SPC</t>
+          <t>Pintura Interior (2° mano)</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
-      </c>
-      <c r="M95" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>2024-07-12 08:57</t>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2024-07-12 12:39</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f151ce73-54b7-46ae-b271-7a5dd9b9aefe</t>
+          <t>efcab23b-415e-4d2a-aadf-1f62c0d44829</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-12 12:39</t>
+          <t>2024-07-12 13:03</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FRANCISCO DIAZ</t>
+          <t>CESAR VILLARROEL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CLAUDIO ROJAS</t>
+          <t>Celso Martinez</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PINTURA</t>
+          <t>CARPINTERIA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Puyaral</t>
+          <t>Las Bandurrias</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7829,42 +8168,40 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Pintura Interior (2° mano)</t>
+          <t>Instalación OSB</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2024-07-12 12:39</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Fin del día</t>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>2024-07-12 13:03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>efcab23b-415e-4d2a-aadf-1f62c0d44829</t>
+          <t>73fb3577-6673-4829-a8a6-5fb9e019701a</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-07-12 13:03</t>
+          <t>2024-07-12 13:15</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -7887,7 +8224,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Las Bandurrias</t>
+          <t>Puyaral</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7902,7 +8239,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Instalación OSB</t>
+          <t>Guardapolvos y pilastras</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7913,54 +8250,72 @@
       <c r="L97" t="n">
         <v>4</v>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>2024-07-12 13:03</t>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:28</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Fin del día</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:24</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:27</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73fb3577-6673-4829-a8a6-5fb9e019701a</t>
+          <t>95888789-eb8c-483e-9456-6a5677581cba</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-07-12 13:15</t>
+          <t>2024-07-12 16:15</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>FRANCISCO DIAZ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Celso Martinez</t>
+          <t>DIEGO RIOSECO</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CARPINTERIA</t>
+          <t>GASFITERÍA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Puyaral</t>
+          <t>Las Bandurrias</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7970,7 +8325,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Guardapolvos y pilastras</t>
+          <t>Artefactos sanitarios</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7979,19 +8334,22 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
-      </c>
-      <c r="M98" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>2024-07-12 16:28</t>
-        </is>
-      </c>
       <c r="O98" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:16</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
         <is>
           <t>Fin del día</t>
         </is>
@@ -8000,30 +8358,30 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>95888789-eb8c-483e-9456-6a5677581cba</t>
+          <t>9c10e9aa-0664-48e2-af1f-77c612e2646e</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-07-12 16:15</t>
+          <t>2024-07-12 16:46</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FRANCISCO DIAZ</t>
+          <t>CESAR VILLARROEL</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DIEGO RIOSECO</t>
+          <t>CELSO MARTINEZ</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>GASFITERÍA</t>
+          <t>CARPINTERIA</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8043,60 +8401,58 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Artefactos sanitarios</t>
+          <t>Instalación Escalera</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L99" t="n">
         <v>3</v>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>2024-07-12 16:16</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Fin del día</t>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:47</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9c10e9aa-0664-48e2-af1f-77c612e2646e</t>
+          <t>2433e744-e529-44df-914e-921d5cd4fa25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-12 16:46</t>
+          <t>2024-07-12 16:53</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>CAMILO CASTILLO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CELSO MARTINEZ</t>
+          <t>ABRAHAM BECERRA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CARPINTERIA</t>
+          <t>PINTURA</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8116,7 +8472,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Instalación Escalera</t>
+          <t>Pintura Interior (2° mano)</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8127,49 +8483,52 @@
       <c r="L100" t="n">
         <v>3</v>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>2024-07-12 16:47</t>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:53</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2433e744-e529-44df-914e-921d5cd4fa25</t>
+          <t>ec7bec93-68de-45e3-a277-503428236ec5</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-07-12 16:53</t>
+          <t>2024-07-15 00:20</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CAMILO CASTILLO</t>
+          <t>CESAR VILLARROEL</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ABRAHAM BECERRA</t>
+          <t>Carlos Astorga</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>PINTURA</t>
+          <t>CARPINTERIA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Las Bandurrias</t>
+          <t>Puyaral</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8179,12 +8538,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Pintura Interior (2° mano)</t>
+          <t>Guardapolvos y pilastras</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8193,23 +8552,26 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>2024-07-12 16:53</t>
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:20</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ec7bec93-68de-45e3-a277-503428236ec5</t>
+          <t>06b0cafd-b600-4510-a1af-156aadf6f614</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8252,7 +8614,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Guardapolvos y pilastras</t>
+          <t>Instalación OSB</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8263,12 +8625,15 @@
       <c r="L102" t="n">
         <v>1</v>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="U102" t="inlineStr">
         <is>
           <t>2024-07-15 00:20</t>
         </is>
@@ -8277,7 +8642,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06b0cafd-b600-4510-a1af-156aadf6f614</t>
+          <t>8892e157-d06e-4ad5-94f7-288555094449</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8331,12 +8696,15 @@
       <c r="L103" t="n">
         <v>1</v>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="U103" t="inlineStr">
         <is>
           <t>2024-07-15 00:20</t>
         </is>
@@ -8345,12 +8713,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8892e157-d06e-4ad5-94f7-288555094449</t>
+          <t>a2ef94a5-c02a-4c49-b85c-7787d9182cd6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-15 00:20</t>
+          <t>2024-07-15 00:21</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -8399,21 +8767,24 @@
       <c r="L104" t="n">
         <v>1</v>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>2024-07-15 00:20</t>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>2024-07-15 00:21</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>a2ef94a5-c02a-4c49-b85c-7787d9182cd6</t>
+          <t>b0e9d0ae-e261-4ba4-be9f-813fa269b1a6</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8461,45 +8832,53 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>Paused</t>
         </is>
       </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>2024-07-15 00:21</t>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:40</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Final del día automático</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b0e9d0ae-e261-4ba4-be9f-813fa269b1a6</t>
+          <t>ac8b686b-652e-41cd-912a-be7752f2f374</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-07-15 00:21</t>
+          <t>2024-07-15 00:58</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>FRANCISCO DIAZ</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Carlos Astorga</t>
+          <t>Flor Sanhueza</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8509,7 +8888,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Puyaral</t>
+          <t>Las Bandurrias</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8524,60 +8903,73 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Instalación OSB</t>
+          <t>Instalación de puerta interior</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>L1</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:08</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:12</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ac8b686b-652e-41cd-912a-be7752f2f374</t>
+          <t>3c1e37fd-6866-4c4e-b4df-fdf3aa9e9c1c</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-15 00:58</t>
+          <t>2024-07-15 09:08</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FRANCISCO DIAZ</t>
+          <t>CESAR VILLARROEL</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Flor Sanhueza</t>
+          <t>CELSO MARTINEZ</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SELLOS Y ASEO</t>
+          <t>CARPINTERIA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Puyaral</t>
+          <t>Las Bandurrias</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8587,37 +8979,35 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Aseo entrega</t>
+          <t>Instalación de puerta interior</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Paused</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>2024-07-15 00:59</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Final del día</t>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:08</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3c1e37fd-6866-4c4e-b4df-fdf3aa9e9c1c</t>
+          <t>240f279e-469b-45fd-b098-cdcbc15480b9</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8635,7 +9025,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CELSO MARTINEZ</t>
+          <t>Celso Martinez</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8660,7 +9050,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Instalación de puerta interior</t>
+          <t>Revestimiento Siding (planchas)</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8671,49 +9061,52 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>2024-07-15 09:08</t>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>2024-07-15 12:19</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>240f279e-469b-45fd-b098-cdcbc15480b9</t>
+          <t>a2a02727-8a93-43a4-a62c-8f836eb05283</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-07-15 09:08</t>
+          <t>2024-07-15 09:09</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CESAR VILLARROEL</t>
+          <t>FRANCISCO DIAZ</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Celso Martinez</t>
+          <t>FLOR SANHUEZA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CARPINTERIA</t>
+          <t>SELLOS Y ASEO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Las Bandurrias</t>
+          <t>Bosquemar</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8723,95 +9116,1734 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Revestimiento Siding (planchas)</t>
+          <t>Aseo entrega</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>en proceso</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>L1</t>
+        <v>4</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>2024-07-15 09:09</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>a2a02727-8a93-43a4-a62c-8f836eb05283</t>
+          <t>4179baaf-a65c-4649-8e2c-665cd5f9d46e</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-07-15 09:09</t>
+          <t>2024-07-15 12:21</t>
         </is>
       </c>
       <c r="C110" t="n">
+        <v>25</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2024-07-15 12:23</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Falta de materiales: Puertas</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>508e3bd6-43ad-4865-9787-77f2764974ba</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-07-15 12:31</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>25</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>CELSO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2024-07-15 13:07</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falta de materiales: </t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>e4eadadc-cd5b-4e5b-92db-5536b2ac9322</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:24</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>12</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>FRANCISCO DIAZ</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>FLOR SANHUEZA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>SELLOS Y ASEO</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Bosquemar</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Aseo entrega</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>c70fb64d-fdc7-4227-9992-d6c35a20f795</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:29</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>22</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ISRAEL VILLARROEL</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Revest. Ext. (Siding, EIFS o Smartpanel)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:40</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Final del día automático</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6a7bd07e-7535-489d-975a-6f66516de149</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:47</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CARLOS REBOLLEDO</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Piso SPC</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:47</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Final del día</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>865f40f2-f354-4f40-b680-d441c12dcec6</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:47</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>CARLOS VEGA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Piso SPC</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6eb8231c-cee8-4c22-806d-1edb7e9a3c99</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-07-16 13:54</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>25</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>CELSO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Final del día</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>dd056725-eef6-411e-87ef-4f67c0b6ff6e</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-07-16 14:01</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>25</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>8f01a647-7129-4cdd-989d-615f648d5e65</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:12</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>25</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Piso SPC</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>74bc487a-f307-4f47-8ed2-102a051ba62b</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:12</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>25</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Piso SPC</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>399af64e-03a7-4ac2-a922-14870559f7aa</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:17</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>19</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>OCTAVIO MIRANDA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>GASFITERÍA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Artefactos sanitarios</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1255601e-5f7d-4a26-aacf-6f09f39d242c</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:37</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>25</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ff3f1933-9d14-4a6d-893b-d5e32a61a929</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:37</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>25</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>e350e777-f43a-4fb2-9441-b55b7145a402</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:43</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>25</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Limpiar patio</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>c3b89c91-ceab-40c3-8909-fa209d078e1b</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:54</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>25</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Revestimiento Siding (planchas)</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>025b9b70-d893-4e07-9463-6026d29455c4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:57</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>25</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Instalación Escalera</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>066ca8de-83d8-4056-9dfb-d70c56a01e6f</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:59</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>25</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>98bc2e57-933b-4da5-a261-d233b062dde4</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:00</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>25</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Instalación Escalera</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ae30512f-c9d0-4051-ae20-f8a65cbdd143</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:04</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>25</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Revestimiento Siding (planchas)</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2042178e-c9cc-41fb-a24b-891ecd37e614</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:46</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>DOMINGO ZENTENO</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Montaje de Módulo</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>en proceso</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>758bbddc-5a1f-4809-83e1-7d19b107cb35</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:00</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>25</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>CELSO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Puyaral</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Instalación de puerta interior</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Paused</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>5</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:01</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Final del día</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:02</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:19</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Final del día</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>c1b86bce-c904-475c-8234-ca0067713232</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:19</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>25</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Aseo entrega</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Instalación Escalera</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>Finished</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>4</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>2024-07-15 09:09</t>
-        </is>
-      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>64ffe1c4-9278-43b2-ada0-a8375daea285</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:22</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>25</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CESAR VILLARROEL</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Celso Martinez</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>CARPINTERIA</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Las Bandurrias</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Instalación Escalera</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>en proceso</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
